--- a/data/05_input/zm.cg20a.2.xlsx
+++ b/data/05_input/zm.cg20a.2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/92166053-8CCE-4CC9-8DEE-F69A762E17E8/login.msi.umn.edu/panfs/roc/groups/15/springer/zhoux379/projects/barn/data/05_input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/orion/Library/Containers/com.panic.transmit.mas/Data/Library/Caches/Transmit/1EC249D9-6707-48AF-B538-69A7611E8B43/192.168.1.19/datalus/weiyu/projects/barn/data/05_input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBFC6434-244A-AD40-813E-020CEF1EC958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA98EA7C-98A7-A647-9ADA-680D1250F80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13540" yWindow="6720" windowWidth="17780" windowHeight="14280" xr2:uid="{67760308-83C7-244E-9309-67C566F6D356}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="159">
   <si>
     <t>SampleID</t>
   </si>
@@ -64,78 +64,6 @@
     <t>SE</t>
   </si>
   <si>
-    <t>B73_Husk_1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_root_r3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_shoot_r3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_shoot_r1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_V2_2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_root_r3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_Husk_2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_root_r4_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_Rctrl_r1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_shoot_r3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_V2_3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_shoot_r1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_Husk_3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_shoot_r1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_Rctrl_r2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_shoot_r4_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_root_r1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_shoot_r2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_root_r2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73Mo17_shoot_r2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_Rctrl_r3_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>B73_V2_1_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_root_r2_trim.fq.gz</t>
-  </si>
-  <si>
-    <t>Mo17_shoot_r3_trim.fq.gz</t>
-  </si>
-  <si>
     <t>s01</t>
   </si>
   <si>
@@ -221,6 +149,360 @@
   </si>
   <si>
     <t>A632</t>
+  </si>
+  <si>
+    <t>s25</t>
+  </si>
+  <si>
+    <t>s26</t>
+  </si>
+  <si>
+    <t>s27</t>
+  </si>
+  <si>
+    <t>s28</t>
+  </si>
+  <si>
+    <t>s29</t>
+  </si>
+  <si>
+    <t>cold_control</t>
+  </si>
+  <si>
+    <t>s30</t>
+  </si>
+  <si>
+    <t>s31</t>
+  </si>
+  <si>
+    <t>s32</t>
+  </si>
+  <si>
+    <t>cold</t>
+  </si>
+  <si>
+    <t>s33</t>
+  </si>
+  <si>
+    <t>s34</t>
+  </si>
+  <si>
+    <t>s35</t>
+  </si>
+  <si>
+    <t>s36</t>
+  </si>
+  <si>
+    <t>s37</t>
+  </si>
+  <si>
+    <t>s38</t>
+  </si>
+  <si>
+    <t>s39</t>
+  </si>
+  <si>
+    <t>s40</t>
+  </si>
+  <si>
+    <t>s41</t>
+  </si>
+  <si>
+    <t>s42</t>
+  </si>
+  <si>
+    <t>s43</t>
+  </si>
+  <si>
+    <t>s44</t>
+  </si>
+  <si>
+    <t>s45</t>
+  </si>
+  <si>
+    <t>s46</t>
+  </si>
+  <si>
+    <t>s47</t>
+  </si>
+  <si>
+    <t>s48</t>
+  </si>
+  <si>
+    <t>s49</t>
+  </si>
+  <si>
+    <t>s50</t>
+  </si>
+  <si>
+    <t>s51</t>
+  </si>
+  <si>
+    <t>s52</t>
+  </si>
+  <si>
+    <t>s53</t>
+  </si>
+  <si>
+    <t>drought</t>
+  </si>
+  <si>
+    <t>s54</t>
+  </si>
+  <si>
+    <t>s55</t>
+  </si>
+  <si>
+    <t>s56</t>
+  </si>
+  <si>
+    <t>s57</t>
+  </si>
+  <si>
+    <t>s58</t>
+  </si>
+  <si>
+    <t>drought_control</t>
+  </si>
+  <si>
+    <t>s59</t>
+  </si>
+  <si>
+    <t>s60</t>
+  </si>
+  <si>
+    <t>s61</t>
+  </si>
+  <si>
+    <t>s62</t>
+  </si>
+  <si>
+    <t>AMG</t>
+  </si>
+  <si>
+    <t>s63</t>
+  </si>
+  <si>
+    <t>Maike</t>
+  </si>
+  <si>
+    <t>s64</t>
+  </si>
+  <si>
+    <t>s65</t>
+  </si>
+  <si>
+    <t>s66</t>
+  </si>
+  <si>
+    <t>s67</t>
+  </si>
+  <si>
+    <t>s68</t>
+  </si>
+  <si>
+    <t>s01.fq.gz</t>
+  </si>
+  <si>
+    <t>s02.fq.gz</t>
+  </si>
+  <si>
+    <t>s03.fq.gz</t>
+  </si>
+  <si>
+    <t>s04.fq.gz</t>
+  </si>
+  <si>
+    <t>s05.fq.gz</t>
+  </si>
+  <si>
+    <t>s06.fq.gz</t>
+  </si>
+  <si>
+    <t>s07.fq.gz</t>
+  </si>
+  <si>
+    <t>s08.fq.gz</t>
+  </si>
+  <si>
+    <t>s09.fq.gz</t>
+  </si>
+  <si>
+    <t>s10.fq.gz</t>
+  </si>
+  <si>
+    <t>s11.fq.gz</t>
+  </si>
+  <si>
+    <t>s12.fq.gz</t>
+  </si>
+  <si>
+    <t>s13.fq.gz</t>
+  </si>
+  <si>
+    <t>s14.fq.gz</t>
+  </si>
+  <si>
+    <t>s15.fq.gz</t>
+  </si>
+  <si>
+    <t>s16.fq.gz</t>
+  </si>
+  <si>
+    <t>s17.fq.gz</t>
+  </si>
+  <si>
+    <t>s18.fq.gz</t>
+  </si>
+  <si>
+    <t>s19.fq.gz</t>
+  </si>
+  <si>
+    <t>s20.fq.gz</t>
+  </si>
+  <si>
+    <t>s21.fq.gz</t>
+  </si>
+  <si>
+    <t>s22.fq.gz</t>
+  </si>
+  <si>
+    <t>s23.fq.gz</t>
+  </si>
+  <si>
+    <t>s24.fq.gz</t>
+  </si>
+  <si>
+    <t>s25.fq.gz</t>
+  </si>
+  <si>
+    <t>s26.fq.gz</t>
+  </si>
+  <si>
+    <t>s27.fq.gz</t>
+  </si>
+  <si>
+    <t>s28.fq.gz</t>
+  </si>
+  <si>
+    <t>s29.fq.gz</t>
+  </si>
+  <si>
+    <t>s30.fq.gz</t>
+  </si>
+  <si>
+    <t>s31.fq.gz</t>
+  </si>
+  <si>
+    <t>s32.fq.gz</t>
+  </si>
+  <si>
+    <t>s33.fq.gz</t>
+  </si>
+  <si>
+    <t>s34.fq.gz</t>
+  </si>
+  <si>
+    <t>s35.fq.gz</t>
+  </si>
+  <si>
+    <t>s36.fq.gz</t>
+  </si>
+  <si>
+    <t>s37.fq.gz</t>
+  </si>
+  <si>
+    <t>s38.fq.gz</t>
+  </si>
+  <si>
+    <t>s39.fq.gz</t>
+  </si>
+  <si>
+    <t>s40.fq.gz</t>
+  </si>
+  <si>
+    <t>s41.fq.gz</t>
+  </si>
+  <si>
+    <t>s42.fq.gz</t>
+  </si>
+  <si>
+    <t>s43.fq.gz</t>
+  </si>
+  <si>
+    <t>s44.fq.gz</t>
+  </si>
+  <si>
+    <t>s45.fq.gz</t>
+  </si>
+  <si>
+    <t>s46.fq.gz</t>
+  </si>
+  <si>
+    <t>s47.fq.gz</t>
+  </si>
+  <si>
+    <t>s48.fq.gz</t>
+  </si>
+  <si>
+    <t>s49.fq.gz</t>
+  </si>
+  <si>
+    <t>s50.fq.gz</t>
+  </si>
+  <si>
+    <t>s51.fq.gz</t>
+  </si>
+  <si>
+    <t>s52.fq.gz</t>
+  </si>
+  <si>
+    <t>s53.fq.gz</t>
+  </si>
+  <si>
+    <t>s54.fq.gz</t>
+  </si>
+  <si>
+    <t>s55.fq.gz</t>
+  </si>
+  <si>
+    <t>s56.fq.gz</t>
+  </si>
+  <si>
+    <t>s57.fq.gz</t>
+  </si>
+  <si>
+    <t>s58.fq.gz</t>
+  </si>
+  <si>
+    <t>s59.fq.gz</t>
+  </si>
+  <si>
+    <t>s60.fq.gz</t>
+  </si>
+  <si>
+    <t>s61.fq.gz</t>
+  </si>
+  <si>
+    <t>s62.fq.gz</t>
+  </si>
+  <si>
+    <t>s63.fq.gz</t>
+  </si>
+  <si>
+    <t>s64.fq.gz</t>
+  </si>
+  <si>
+    <t>s65.fq.gz</t>
+  </si>
+  <si>
+    <t>s66.fq.gz</t>
+  </si>
+  <si>
+    <t>s67.fq.gz</t>
+  </si>
+  <si>
+    <t>s68.fq.gz</t>
   </si>
 </sst>
 </file>
@@ -578,11 +860,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04FFD014-A071-C843-B0EC-9B05A4E70C0E}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E11" sqref="E11:E13"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2:G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -623,13 +905,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="D2">
+        <v>2015</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -638,18 +923,21 @@
         <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="D3">
+        <v>2015</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -658,98 +946,113 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="D4">
+        <v>2015</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>38</v>
+      </c>
+      <c r="D5">
+        <v>2015</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D6">
+        <v>2015</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>2015</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D8">
+        <v>2015</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -758,18 +1061,21 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>40</v>
+      </c>
+      <c r="D9">
+        <v>2015</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -778,158 +1084,158 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>11</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
         <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>11</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
         <v>11</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>11</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -938,18 +1244,18 @@
         <v>11</v>
       </c>
       <c r="G17" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -958,18 +1264,18 @@
         <v>11</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -978,18 +1284,18 @@
         <v>11</v>
       </c>
       <c r="G19" t="s">
-        <v>14</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -998,18 +1304,18 @@
         <v>11</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1018,18 +1324,18 @@
         <v>11</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1038,18 +1344,18 @@
         <v>11</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1058,18 +1364,18 @@
         <v>11</v>
       </c>
       <c r="G23" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1078,18 +1384,18 @@
         <v>11</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>64</v>
+        <v>10</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1098,7 +1404,1007 @@
         <v>11</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" t="s">
+        <v>50</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>50</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" t="s">
+        <v>40</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>46</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>38</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>40</v>
+      </c>
+      <c r="D60" t="s">
+        <v>78</v>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>81</v>
+      </c>
+      <c r="B62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>82</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>83</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>84</v>
+      </c>
+      <c r="B64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>85</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <v>2</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>85</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>85</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>85</v>
+      </c>
+      <c r="E68">
+        <v>2</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+      <c r="B69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>85</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
